--- a/data/trans_media/Q23_2_2015-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q23_2_2015-Habitat-trans_media.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,3; 17,79</t>
+          <t>15,15; 17,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,12; 19,65</t>
+          <t>16,13; 20,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 17,33</t>
+          <t>15,7; 17,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 21,6</t>
+          <t>16,64; 21,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 17,79</t>
+          <t>16,08; 17,83</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 19,97</t>
+          <t>16,57; 19,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 20,68</t>
+          <t>17,26; 20,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 19,47</t>
+          <t>17,04; 19,23</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 19,09</t>
+          <t>15,99; 19,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 16,88</t>
+          <t>15,13; 16,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 18,35</t>
+          <t>16,06; 18,34</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,67; 17,89</t>
+          <t>16,64; 17,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,03; 19,89</t>
+          <t>17,13; 20,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 18,1</t>
+          <t>16,98; 18,07</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,78</t>
+          <t>16,72; 17,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,37; 19,03</t>
+          <t>17,37; 18,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,88</t>
+          <t>16,98; 17,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23_2_2015-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q23_2_2015-Habitat-trans_media.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,15; 17,67</t>
+          <t>15,28; 17,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,14 +589,14 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 20,06</t>
+          <t>16,24; 19,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 17,3</t>
+          <t>15,71; 17,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 21,73</t>
+          <t>16,65; 21,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 17,83</t>
+          <t>16,09; 17,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 19,81</t>
+          <t>16,55; 20,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,26; 20,61</t>
+          <t>17,27; 20,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 19,23</t>
+          <t>16,97; 19,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 19,11</t>
+          <t>15,95; 19,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 16,94</t>
+          <t>14,99; 16,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,34</t>
+          <t>16,05; 18,31</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,84</t>
+          <t>16,69; 17,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 20,03</t>
+          <t>17,19; 20,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,98; 18,07</t>
+          <t>16,95; 18,15</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,85</t>
+          <t>16,75; 17,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,37; 18,98</t>
+          <t>17,3; 18,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,85</t>
+          <t>16,96; 17,84</t>
         </is>
       </c>
     </row>
